--- a/biology/Zoologie/Euchloe_ausonides/Euchloe_ausonides.xlsx
+++ b/biology/Zoologie/Euchloe_ausonides/Euchloe_ausonides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchloe ausonides est une espèce d'insectes lépidoptères de la sous-famille des Pierinae (famille des Pieridae).
 </t>
@@ -511,84 +523,93 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euchloe ausonides a été nommé en 1852 par l'entomologiste français Hippolyte Lucas (1814-1899)[1].
-Synonymes[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Euchloe ausonides a été nommé en 1852 par l'entomologiste français Hippolyte Lucas (1814-1899).
+Synonymes : 
 Euchloe flavidalis Comstock, 1924
 Euchloe semiflava Comstock, 1924
 Euchloe boharti Doudoroff, 1930
-Euchloe hemiflava Field, 1936
-Noms vernaculaires
-Euchloe ausonides se nomme en anglais Large Marble ou Creamy Marblewing ; la sous-espèce Euchloe ausonides insulana se nomme Island Marble[1].
-Liste des sous-espèces
-Euchloe ausonides coloradensis (H. Edwards, 1881) présent au Colorado
+Euchloe hemiflava Field, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchloe ausonides se nomme en anglais Large Marble ou Creamy Marblewing ; la sous-espèce Euchloe ausonides insulana se nomme Island Marble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euchloe ausonides coloradensis (H. Edwards, 1881) présent au Colorado
 Euchloe ausonides insulana (Guppy et Shepard, 2001) présent en Colombie-Britannique
 Euchloe ausonide mayi (F. et R. Chermock, 1940)
 Euchloe ausonides palaeoreios (Johnson, 1977)
-Euchloe ausonides transmontana (Austin et Emmel, 1998)[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euchloe_ausonides</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon de taille moyenne (son envergure varie de 38 à 51 mm) en majorité blanc présente sur le dessus à l'apex de l'aile antérieure une plage grise ponctuée de  blanc. Le revers de l'aile antérieure est blanc avec une tache noire et une plage verte à l'apex et celui de l'aile postérieure est marbré de vert taché de blanc[2]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euchloe_ausonides</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Chenille et chrysalide</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille est de couleur gris-bleu, ponctué de petits points noirs et marquée de lignes jaunes et blanches[3].
-</t>
+Euchloe ausonides transmontana (Austin et Emmel, 1998)</t>
         </is>
       </c>
     </row>
@@ -613,16 +634,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération en avril mai dans le sud de la Colombie-Britannique, plus tard dans les régions montagneuses[3]. Plus au sud il vole en deux générations, de février à avril puis de mai à août en Californie[4].
-Il hiverne au stade de chrysalide[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des brassicacées (crucifères) : Brassica, Arabis (Arabis glabra), Sisymbrium (Sisymbrium altissimum), Isatis tinctoria, Descurainia richardsonii[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon de taille moyenne (son envergure varie de 38 à 51 mm) en majorité blanc présente sur le dessus à l'apex de l'aile antérieure une plage grise ponctuée de  blanc. Le revers de l'aile antérieure est blanc avec une tache noire et une plage verte à l'apex et celui de l'aile postérieure est marbré de vert taché de blanc
 </t>
         </is>
       </c>
@@ -648,16 +667,196 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur gris-bleu, ponctué de petits points noirs et marquée de lignes jaunes et blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération en avril mai dans le sud de la Colombie-Britannique, plus tard dans les régions montagneuses. Plus au sud il vole en deux générations, de février à avril puis de mai à août en Californie.
+Il hiverne au stade de chrysalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des brassicacées (crucifères) : Brassica, Arabis (Arabis glabra), Sisymbrium (Sisymbrium altissimum), Isatis tinctoria, Descurainia richardsonii,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le Sud de l'Alaska et sur la côte ouest de l'Amérique du Nord, de la Colombie-Britannique à la Californie, dans le Nord du Nouveau-Mexique et le Sud-Ouest du Manitoba[1]. Il est présent au Canada en Colombie-Britannique et Alberta et aux États-Unis en Alaska et dans tout l'Ouest jusqu'à l'ouest du Dakota du Nord, du Dakota du Sud et du Nebraska[2].
-Biotope
-Il réside dans les zones ouvertes ensoleillées et près des pins.
-Protection
-Euchloe ausonides insulana est presque éteint aux États-Unis et fait l'objet de mesures de protection ; il n'y a pas de statut de protection particulier pour l'espèce nominale et les autres sous-espèces[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le Sud de l'Alaska et sur la côte ouest de l'Amérique du Nord, de la Colombie-Britannique à la Californie, dans le Nord du Nouveau-Mexique et le Sud-Ouest du Manitoba. Il est présent au Canada en Colombie-Britannique et Alberta et aux États-Unis en Alaska et dans tout l'Ouest jusqu'à l'ouest du Dakota du Nord, du Dakota du Sud et du Nebraska.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones ouvertes ensoleillées et près des pins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_ausonides</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchloe ausonides insulana est presque éteint aux États-Unis et fait l'objet de mesures de protection ; il n'y a pas de statut de protection particulier pour l'espèce nominale et les autres sous-espèces.
 </t>
         </is>
       </c>
